--- a/data/pca/factorExposure/factorExposure_2010-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-03.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01265531844044585</v>
+        <v>-0.01686992216047666</v>
       </c>
       <c r="C2">
-        <v>-0.002358139207227399</v>
+        <v>0.0009079405991149743</v>
       </c>
       <c r="D2">
-        <v>-0.01295827326966028</v>
+        <v>0.008563717624312161</v>
       </c>
       <c r="E2">
-        <v>0.03079245947479384</v>
+        <v>-0.002543043861892337</v>
       </c>
       <c r="F2">
-        <v>0.01376977031568606</v>
+        <v>0.0126666446074206</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1209672310899432</v>
+        <v>-0.09500033122645284</v>
       </c>
       <c r="C4">
-        <v>-0.1008891256517362</v>
+        <v>0.01754078270872979</v>
       </c>
       <c r="D4">
-        <v>0.01152876575353356</v>
+        <v>0.08087584439644752</v>
       </c>
       <c r="E4">
-        <v>0.07643510129209652</v>
+        <v>0.02657304233027466</v>
       </c>
       <c r="F4">
-        <v>-0.1899877274105184</v>
+        <v>-0.03583093817735584</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1326932686543058</v>
+        <v>-0.1521018823424837</v>
       </c>
       <c r="C6">
-        <v>-0.06124370815284574</v>
+        <v>0.02457868638887958</v>
       </c>
       <c r="D6">
-        <v>0.006578303763200689</v>
+        <v>-0.02372947993745459</v>
       </c>
       <c r="E6">
-        <v>0.0305461862000969</v>
+        <v>0.01455376278892931</v>
       </c>
       <c r="F6">
-        <v>-0.02148009850311009</v>
+        <v>-0.03951780753288384</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06721795644454125</v>
+        <v>-0.06156286408864751</v>
       </c>
       <c r="C7">
-        <v>-0.07298718841567742</v>
+        <v>-2.48430999502681e-05</v>
       </c>
       <c r="D7">
-        <v>-0.01233287163648903</v>
+        <v>0.05167876163471456</v>
       </c>
       <c r="E7">
-        <v>0.002403466421002777</v>
+        <v>0.01296144833743813</v>
       </c>
       <c r="F7">
-        <v>-0.01591705778541442</v>
+        <v>-0.05610820237732225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.043853437746177</v>
+        <v>-0.05937057399577795</v>
       </c>
       <c r="C8">
-        <v>-0.01933812317900644</v>
+        <v>-0.01270822902910664</v>
       </c>
       <c r="D8">
-        <v>0.007294546508097405</v>
+        <v>0.02766814064267083</v>
       </c>
       <c r="E8">
-        <v>0.05317360821299825</v>
+        <v>0.0121787423342559</v>
       </c>
       <c r="F8">
-        <v>-0.1431903538859675</v>
+        <v>0.02529712830886518</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08465702072050299</v>
+        <v>-0.07233053828787707</v>
       </c>
       <c r="C9">
-        <v>-0.07355607845837833</v>
+        <v>0.01373883412868708</v>
       </c>
       <c r="D9">
-        <v>0.02713331182723688</v>
+        <v>0.08071211139075604</v>
       </c>
       <c r="E9">
-        <v>0.05519914829382461</v>
+        <v>0.02130016249403571</v>
       </c>
       <c r="F9">
-        <v>-0.1536766234330635</v>
+        <v>-0.05737890801139713</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1353664758626833</v>
+        <v>-0.09255168640188269</v>
       </c>
       <c r="C10">
-        <v>0.1621500376629652</v>
+        <v>0.01506162301603673</v>
       </c>
       <c r="D10">
-        <v>-0.01509841000974911</v>
+        <v>-0.1726524367561855</v>
       </c>
       <c r="E10">
-        <v>0.0222299709903759</v>
+        <v>-0.03445716168033629</v>
       </c>
       <c r="F10">
-        <v>0.05330038133467572</v>
+        <v>0.05180451703389793</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06539172566770252</v>
+        <v>-0.08818365279479944</v>
       </c>
       <c r="C11">
-        <v>-0.06410579719759964</v>
+        <v>0.01288262482519774</v>
       </c>
       <c r="D11">
-        <v>0.04284237783446514</v>
+        <v>0.1113496095091714</v>
       </c>
       <c r="E11">
-        <v>0.0359068554314639</v>
+        <v>0.04199869944587045</v>
       </c>
       <c r="F11">
-        <v>-0.08781296650322964</v>
+        <v>-0.02518472487570497</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0662922502452528</v>
+        <v>-0.09332145044878444</v>
       </c>
       <c r="C12">
-        <v>-0.07214109266249823</v>
+        <v>0.01086083521163324</v>
       </c>
       <c r="D12">
-        <v>0.05447164123004195</v>
+        <v>0.1186784363133643</v>
       </c>
       <c r="E12">
-        <v>0.00380114678425972</v>
+        <v>0.04046249549364198</v>
       </c>
       <c r="F12">
-        <v>-0.1002954997414516</v>
+        <v>-0.02766758889459305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03692926715017507</v>
+        <v>-0.04407378739694127</v>
       </c>
       <c r="C13">
-        <v>-0.04347142216227999</v>
+        <v>0.004622037342772814</v>
       </c>
       <c r="D13">
-        <v>-0.02078077364577998</v>
+        <v>0.04393323125605818</v>
       </c>
       <c r="E13">
-        <v>0.002254043560349378</v>
+        <v>-0.01461775310885132</v>
       </c>
       <c r="F13">
-        <v>-0.04509027889607859</v>
+        <v>-0.01849874611195295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03399897097345033</v>
+        <v>-0.02190907555419002</v>
       </c>
       <c r="C14">
-        <v>-0.0353144127610583</v>
+        <v>0.01491753037563776</v>
       </c>
       <c r="D14">
-        <v>0.02098402776537058</v>
+        <v>0.03203363510832161</v>
       </c>
       <c r="E14">
-        <v>0.01311735127613795</v>
+        <v>0.0163819955560656</v>
       </c>
       <c r="F14">
-        <v>-0.06053683491053725</v>
+        <v>-0.0217197784272861</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01925087443131114</v>
+        <v>-0.03265687282289929</v>
       </c>
       <c r="C15">
-        <v>-0.01754006033909802</v>
+        <v>0.005787746032459003</v>
       </c>
       <c r="D15">
-        <v>-0.06831688254682075</v>
+        <v>0.04377739250538921</v>
       </c>
       <c r="E15">
-        <v>0.02712407239144321</v>
+        <v>0.007899047442071181</v>
       </c>
       <c r="F15">
-        <v>-0.01034315515131358</v>
+        <v>-0.03293069831131108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07361098169510967</v>
+        <v>-0.07526184470061882</v>
       </c>
       <c r="C16">
-        <v>-0.07902489186560703</v>
+        <v>0.004660281061424575</v>
       </c>
       <c r="D16">
-        <v>0.04052643722074969</v>
+        <v>0.1154558542094413</v>
       </c>
       <c r="E16">
-        <v>0.02360416054025321</v>
+        <v>0.05716491132532209</v>
       </c>
       <c r="F16">
-        <v>-0.08578277634494894</v>
+        <v>-0.03432355072874322</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02073339330002328</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003746494859285847</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.021794498732979</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01015967378467609</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02499489145747203</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04800160894934082</v>
+        <v>-0.06192963864093028</v>
       </c>
       <c r="C20">
-        <v>-0.02502751467468993</v>
+        <v>0.002341818929586117</v>
       </c>
       <c r="D20">
-        <v>-0.03066619744777139</v>
+        <v>0.07080633325784236</v>
       </c>
       <c r="E20">
-        <v>-0.01466830632737623</v>
+        <v>0.05156004729760975</v>
       </c>
       <c r="F20">
-        <v>-0.08650466152587419</v>
+        <v>-0.0305242843904703</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02429925813655728</v>
+        <v>-0.03899295718956187</v>
       </c>
       <c r="C21">
-        <v>-0.01896292563320278</v>
+        <v>0.007874888905630073</v>
       </c>
       <c r="D21">
-        <v>0.01896846481390273</v>
+        <v>0.03348313715817472</v>
       </c>
       <c r="E21">
-        <v>0.01879538202177172</v>
+        <v>-0.01205717488163721</v>
       </c>
       <c r="F21">
-        <v>-0.06216834100484152</v>
+        <v>0.01769432028614766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05673984278691898</v>
+        <v>-0.0431231308778162</v>
       </c>
       <c r="C22">
-        <v>-0.02759481935918984</v>
+        <v>0.0004895463303605285</v>
       </c>
       <c r="D22">
-        <v>-0.6406844254509337</v>
+        <v>0.002403248977266795</v>
       </c>
       <c r="E22">
-        <v>-0.1687484991448175</v>
+        <v>0.03281774974690016</v>
       </c>
       <c r="F22">
-        <v>-0.05526791450363998</v>
+        <v>0.01431018201277102</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05760928438057062</v>
+        <v>-0.0432108646132201</v>
       </c>
       <c r="C23">
-        <v>-0.02943095289344982</v>
+        <v>0.0005221074177063175</v>
       </c>
       <c r="D23">
-        <v>-0.6429758939860136</v>
+        <v>0.002597936610771155</v>
       </c>
       <c r="E23">
-        <v>-0.166571770998666</v>
+        <v>0.03323021486073887</v>
       </c>
       <c r="F23">
-        <v>-0.05979587430488273</v>
+        <v>0.0137806296814806</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07360614923621892</v>
+        <v>-0.08171669710927817</v>
       </c>
       <c r="C24">
-        <v>-0.07940716324515096</v>
+        <v>0.004848640255025482</v>
       </c>
       <c r="D24">
-        <v>0.03149252617274035</v>
+        <v>0.1153571180810394</v>
       </c>
       <c r="E24">
-        <v>0.03180659594867915</v>
+        <v>0.04555607035147277</v>
       </c>
       <c r="F24">
-        <v>-0.08813908166950409</v>
+        <v>-0.02630244618137967</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07159794535033563</v>
+        <v>-0.08559557955364228</v>
       </c>
       <c r="C25">
-        <v>-0.05959055834207529</v>
+        <v>0.006771400482230759</v>
       </c>
       <c r="D25">
-        <v>0.0585648816429382</v>
+        <v>0.1020595198108491</v>
       </c>
       <c r="E25">
-        <v>0.03128729894395471</v>
+        <v>0.02759460508403734</v>
       </c>
       <c r="F25">
-        <v>-0.08858074514356057</v>
+        <v>-0.03475590790020863</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04123675446767796</v>
+        <v>-0.05638555558984311</v>
       </c>
       <c r="C26">
-        <v>0.0009947983029290927</v>
+        <v>0.01562953351158666</v>
       </c>
       <c r="D26">
-        <v>-0.0117562666360335</v>
+        <v>0.0330024273989032</v>
       </c>
       <c r="E26">
-        <v>-0.0372969615427594</v>
+        <v>0.02335466726819331</v>
       </c>
       <c r="F26">
-        <v>-0.0923087368502068</v>
+        <v>0.005183223322939602</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1629543611068135</v>
+        <v>-0.1383443737779546</v>
       </c>
       <c r="C28">
-        <v>0.2692345927413874</v>
+        <v>0.01232507775330596</v>
       </c>
       <c r="D28">
-        <v>0.009393850854085704</v>
+        <v>-0.2713642851834522</v>
       </c>
       <c r="E28">
-        <v>-0.008468498051628692</v>
+        <v>-0.0670745426324538</v>
       </c>
       <c r="F28">
-        <v>-0.03887095400148452</v>
+        <v>-0.03694579942466861</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03462134078674268</v>
+        <v>-0.02740912916608534</v>
       </c>
       <c r="C29">
-        <v>-0.03251663217073969</v>
+        <v>0.009218326686852222</v>
       </c>
       <c r="D29">
-        <v>0.02108657306524667</v>
+        <v>0.03051074955260772</v>
       </c>
       <c r="E29">
-        <v>0.00978940848855608</v>
+        <v>0.009056354450295357</v>
       </c>
       <c r="F29">
-        <v>-0.06812122526472712</v>
+        <v>0.009144782203522937</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09317967868445433</v>
+        <v>-0.0647728433166352</v>
       </c>
       <c r="C30">
-        <v>-0.05726119594455877</v>
+        <v>0.00656927125710726</v>
       </c>
       <c r="D30">
-        <v>0.03868265733192652</v>
+        <v>0.07904130324545305</v>
       </c>
       <c r="E30">
-        <v>-0.1964126156002597</v>
+        <v>0.02220193377698127</v>
       </c>
       <c r="F30">
-        <v>-0.2792240565110446</v>
+        <v>-0.1174796967824638</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03193401944380647</v>
+        <v>-0.04896623315137554</v>
       </c>
       <c r="C31">
-        <v>-0.06924037131797876</v>
+        <v>0.01523251741297244</v>
       </c>
       <c r="D31">
-        <v>0.0001080083065586093</v>
+        <v>0.02919123716752808</v>
       </c>
       <c r="E31">
-        <v>0.02196834562170832</v>
+        <v>0.02683996996048401</v>
       </c>
       <c r="F31">
-        <v>-0.04081087707413934</v>
+        <v>0.002296511498644412</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05470488630703841</v>
+        <v>-0.04925187615364218</v>
       </c>
       <c r="C32">
-        <v>-0.01739742229620342</v>
+        <v>0.0006211781308786155</v>
       </c>
       <c r="D32">
-        <v>0.05519404871325131</v>
+        <v>0.03061562506803646</v>
       </c>
       <c r="E32">
-        <v>0.07667068408799732</v>
+        <v>0.02686216339451585</v>
       </c>
       <c r="F32">
-        <v>-0.01979852286589957</v>
+        <v>-0.002064915889012471</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09294974022424303</v>
+        <v>-0.09180220272515473</v>
       </c>
       <c r="C33">
-        <v>-0.07956087454467434</v>
+        <v>0.01012861089368414</v>
       </c>
       <c r="D33">
-        <v>0.0317923557120075</v>
+        <v>0.09143717387385922</v>
       </c>
       <c r="E33">
-        <v>-0.014011237559466</v>
+        <v>0.04447798246576941</v>
       </c>
       <c r="F33">
-        <v>-0.06912687351535461</v>
+        <v>-0.0407202480841075</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06711477711513225</v>
+        <v>-0.06926445647475318</v>
       </c>
       <c r="C34">
-        <v>-0.06341498546983809</v>
+        <v>0.01289698930703882</v>
       </c>
       <c r="D34">
-        <v>0.04146414087132839</v>
+        <v>0.09579721012424605</v>
       </c>
       <c r="E34">
-        <v>0.0318857690222791</v>
+        <v>0.02930515741644069</v>
       </c>
       <c r="F34">
-        <v>-0.09538000191101025</v>
+        <v>-0.04920720172777868</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01632458450344103</v>
+        <v>-0.02447517847431632</v>
       </c>
       <c r="C35">
-        <v>-0.008795183481504595</v>
+        <v>0.002697071894502933</v>
       </c>
       <c r="D35">
-        <v>-0.001609522693822069</v>
+        <v>0.00986575232125172</v>
       </c>
       <c r="E35">
-        <v>0.00823643830218059</v>
+        <v>0.01109983773877133</v>
       </c>
       <c r="F35">
-        <v>-0.03810941043299912</v>
+        <v>-0.01147252983365311</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02356736915369173</v>
+        <v>-0.02514639162193629</v>
       </c>
       <c r="C36">
-        <v>-0.01381897700508229</v>
+        <v>0.007278926372974876</v>
       </c>
       <c r="D36">
-        <v>-0.009715940150244644</v>
+        <v>0.0377443939167481</v>
       </c>
       <c r="E36">
-        <v>0.003881767171800735</v>
+        <v>0.01535683884825112</v>
       </c>
       <c r="F36">
-        <v>-0.07551104877082719</v>
+        <v>-0.009029583914959559</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.017856294720174</v>
+        <v>-0.002539807085651653</v>
       </c>
       <c r="C38">
-        <v>-0.04111584933821647</v>
+        <v>0.0004370023642490627</v>
       </c>
       <c r="D38">
-        <v>-0.02499565710473147</v>
+        <v>0.002188393283717711</v>
       </c>
       <c r="E38">
-        <v>-0.08921225097729059</v>
+        <v>0.003072858508952198</v>
       </c>
       <c r="F38">
-        <v>0.06607558403215409</v>
+        <v>0.0022945996451623</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1043576581291347</v>
+        <v>-0.1109524880533259</v>
       </c>
       <c r="C39">
-        <v>-0.1013385324546054</v>
+        <v>0.01863824335413152</v>
       </c>
       <c r="D39">
-        <v>0.1389009028760712</v>
+        <v>0.1475401000015989</v>
       </c>
       <c r="E39">
-        <v>-0.0875605438398329</v>
+        <v>0.05204204402872434</v>
       </c>
       <c r="F39">
-        <v>-0.1607543377529456</v>
+        <v>-0.03694965312626924</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02581724339768984</v>
+        <v>-0.03754775749673379</v>
       </c>
       <c r="C40">
-        <v>-0.06946984478656254</v>
+        <v>0.007645339138577182</v>
       </c>
       <c r="D40">
-        <v>-0.02641431101364164</v>
+        <v>0.02991810665730971</v>
       </c>
       <c r="E40">
-        <v>0.03491453604860908</v>
+        <v>0.002200142624259378</v>
       </c>
       <c r="F40">
-        <v>-0.02457583864483472</v>
+        <v>0.01916521551574389</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03749231016332939</v>
+        <v>-0.02679239786447568</v>
       </c>
       <c r="C41">
-        <v>-0.03158546251891932</v>
+        <v>0.006887133652483625</v>
       </c>
       <c r="D41">
-        <v>0.0180119911638648</v>
+        <v>0.01069373331683454</v>
       </c>
       <c r="E41">
-        <v>-0.01226781635340657</v>
+        <v>0.01150963427512763</v>
       </c>
       <c r="F41">
-        <v>-0.01490203452908754</v>
+        <v>0.01158246982724041</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04439750819731894</v>
+        <v>-0.04264762863267298</v>
       </c>
       <c r="C43">
-        <v>-0.04879924856488748</v>
+        <v>0.007212899249573091</v>
       </c>
       <c r="D43">
-        <v>-0.008283247342970784</v>
+        <v>0.02081643453100123</v>
       </c>
       <c r="E43">
-        <v>-0.02910505309127245</v>
+        <v>0.02556413939697334</v>
       </c>
       <c r="F43">
-        <v>-0.02731048079099782</v>
+        <v>0.01138868094678579</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09847060536992001</v>
+        <v>-0.07330396276008015</v>
       </c>
       <c r="C44">
-        <v>-0.1010857915262713</v>
+        <v>0.02267549073609922</v>
       </c>
       <c r="D44">
-        <v>-0.07944215444648664</v>
+        <v>0.09829899570193829</v>
       </c>
       <c r="E44">
-        <v>0.008954141253010747</v>
+        <v>0.06527972596780264</v>
       </c>
       <c r="F44">
-        <v>-0.1131828416087469</v>
+        <v>-0.1753762832779033</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03757727048405551</v>
+        <v>-0.02368856412164782</v>
       </c>
       <c r="C46">
-        <v>-0.04088621543378731</v>
+        <v>0.004257514751063599</v>
       </c>
       <c r="D46">
-        <v>-0.03985386398179346</v>
+        <v>0.01178397562684986</v>
       </c>
       <c r="E46">
-        <v>0.01467469059532704</v>
+        <v>0.02107366475551292</v>
       </c>
       <c r="F46">
-        <v>-0.04584515208082784</v>
+        <v>0.0002826948724522852</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04709731465382414</v>
+        <v>-0.05330553626774729</v>
       </c>
       <c r="C47">
-        <v>-0.04680090657959426</v>
+        <v>0.003533234733747934</v>
       </c>
       <c r="D47">
-        <v>-0.002222657221281446</v>
+        <v>0.01319647141916418</v>
       </c>
       <c r="E47">
-        <v>0.00493042564185675</v>
+        <v>0.02342514031910071</v>
       </c>
       <c r="F47">
-        <v>-0.01687771993064341</v>
+        <v>0.04705215503708177</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04507580429304646</v>
+        <v>-0.04829513524485077</v>
       </c>
       <c r="C48">
-        <v>-0.0192478613004528</v>
+        <v>0.003365152227027097</v>
       </c>
       <c r="D48">
-        <v>0.01373106660468497</v>
+        <v>0.04542137686401632</v>
       </c>
       <c r="E48">
-        <v>0.04038630309786607</v>
+        <v>-0.008027218190461913</v>
       </c>
       <c r="F48">
-        <v>-0.06807925506252535</v>
+        <v>-0.01505531241503806</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2265904311973518</v>
+        <v>-0.2042270189700279</v>
       </c>
       <c r="C49">
-        <v>-0.03745345328470076</v>
+        <v>0.01692016405364176</v>
       </c>
       <c r="D49">
-        <v>0.02251551247967536</v>
+        <v>-0.009881103124257155</v>
       </c>
       <c r="E49">
-        <v>-0.05552998788782694</v>
+        <v>0.0401282890339341</v>
       </c>
       <c r="F49">
-        <v>0.3076303907218618</v>
+        <v>-0.03168363802840086</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0422176347298991</v>
+        <v>-0.04888295807567544</v>
       </c>
       <c r="C50">
-        <v>-0.04995352438722975</v>
+        <v>0.01124899140822597</v>
       </c>
       <c r="D50">
-        <v>0.01696088569839252</v>
+        <v>0.02653143486042212</v>
       </c>
       <c r="E50">
-        <v>-0.01591210513873416</v>
+        <v>0.02879857160004526</v>
       </c>
       <c r="F50">
-        <v>-0.0659670486383894</v>
+        <v>-0.008139589286942134</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02481306327830998</v>
+        <v>-0.003202238461027169</v>
       </c>
       <c r="C51">
-        <v>0.004206653502068142</v>
+        <v>0.0007569002455372022</v>
       </c>
       <c r="D51">
-        <v>-0.001934415938992232</v>
+        <v>-0.002081856833042857</v>
       </c>
       <c r="E51">
-        <v>0.01514739792058254</v>
+        <v>0.0008791545378439448</v>
       </c>
       <c r="F51">
-        <v>0.04494796193722652</v>
+        <v>-0.004138312313737497</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.05622912903101492</v>
+        <v>-0.1429944470917233</v>
       </c>
       <c r="C52">
-        <v>-0.03489143615166305</v>
+        <v>0.01283255668763022</v>
       </c>
       <c r="D52">
-        <v>0.0321852180317844</v>
+        <v>0.04972332820557767</v>
       </c>
       <c r="E52">
-        <v>-0.04642314766076804</v>
+        <v>0.0189180008511891</v>
       </c>
       <c r="F52">
-        <v>-0.01458322189982261</v>
+        <v>-0.03517622758343169</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1545288091114325</v>
+        <v>-0.1733448282795975</v>
       </c>
       <c r="C53">
-        <v>-0.06759257707090008</v>
+        <v>0.01565366691971267</v>
       </c>
       <c r="D53">
-        <v>-0.01145528387268289</v>
+        <v>0.01553230272100917</v>
       </c>
       <c r="E53">
-        <v>-0.07596395895772245</v>
+        <v>0.03787746559219235</v>
       </c>
       <c r="F53">
-        <v>0.05506777801124256</v>
+        <v>-0.06613236181318412</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05638767069854941</v>
+        <v>-0.02327278365325972</v>
       </c>
       <c r="C54">
-        <v>-0.05694897299900934</v>
+        <v>0.01285531745829076</v>
       </c>
       <c r="D54">
-        <v>0.001888185699818502</v>
+        <v>0.0322302011617219</v>
       </c>
       <c r="E54">
-        <v>0.06570641532167006</v>
+        <v>0.01336162352520588</v>
       </c>
       <c r="F54">
-        <v>-0.1381322287146393</v>
+        <v>0.002868871538896755</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08074891832965009</v>
+        <v>-0.1143971846638552</v>
       </c>
       <c r="C55">
-        <v>-0.05411433724074639</v>
+        <v>0.01447709275231344</v>
       </c>
       <c r="D55">
-        <v>0.03256345726179144</v>
+        <v>0.01437680521110999</v>
       </c>
       <c r="E55">
-        <v>-0.005863888282974363</v>
+        <v>0.03081752513523824</v>
       </c>
       <c r="F55">
-        <v>0.02476538485478574</v>
+        <v>-0.0486698466889537</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.143461443844233</v>
+        <v>-0.1776303593904841</v>
       </c>
       <c r="C56">
-        <v>-0.1005074705340608</v>
+        <v>0.01319611780186365</v>
       </c>
       <c r="D56">
-        <v>0.02071449177387637</v>
+        <v>0.009468200087540429</v>
       </c>
       <c r="E56">
-        <v>-0.05462928734498111</v>
+        <v>0.04287202098439455</v>
       </c>
       <c r="F56">
-        <v>0.04198906439014923</v>
+        <v>-0.0374090902948501</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0432833180897094</v>
+        <v>-0.04662353823932142</v>
       </c>
       <c r="C58">
-        <v>-0.03471861914490899</v>
+        <v>0.003010900913766853</v>
       </c>
       <c r="D58">
-        <v>-0.03889988209515786</v>
+        <v>0.06419153734087023</v>
       </c>
       <c r="E58">
-        <v>-0.022069038693491</v>
+        <v>0.0172790853801125</v>
       </c>
       <c r="F58">
-        <v>-0.02189248504894405</v>
+        <v>0.04893646412705834</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2252584959696907</v>
+        <v>-0.1696827473644419</v>
       </c>
       <c r="C59">
-        <v>0.2276590997420009</v>
+        <v>0.01413660672415318</v>
       </c>
       <c r="D59">
-        <v>0.04231133655327889</v>
+        <v>-0.2314439584249626</v>
       </c>
       <c r="E59">
-        <v>0.06532524392255119</v>
+        <v>-0.04841637250366041</v>
       </c>
       <c r="F59">
-        <v>0.01235612565427943</v>
+        <v>0.03259587546094209</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2270328351231601</v>
+        <v>-0.2388108896325193</v>
       </c>
       <c r="C60">
-        <v>-0.1427162744034193</v>
+        <v>-0.004335774670600962</v>
       </c>
       <c r="D60">
-        <v>0.06874825664109559</v>
+        <v>0.04898631714533087</v>
       </c>
       <c r="E60">
-        <v>-0.02988552872484185</v>
+        <v>0.01024512302029854</v>
       </c>
       <c r="F60">
-        <v>0.1504827127230802</v>
+        <v>0.03908391897885673</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1084664846341638</v>
+        <v>-0.08572139637180952</v>
       </c>
       <c r="C61">
-        <v>-0.07884516452541875</v>
+        <v>0.01450329519880755</v>
       </c>
       <c r="D61">
-        <v>0.08242437195834772</v>
+        <v>0.1086827749900434</v>
       </c>
       <c r="E61">
-        <v>-0.04354983991833954</v>
+        <v>0.03432675785536234</v>
       </c>
       <c r="F61">
-        <v>-0.1613697041798455</v>
+        <v>-0.02118094267801272</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1358226560946087</v>
+        <v>-0.1696084138440651</v>
       </c>
       <c r="C62">
-        <v>-0.0797976776502633</v>
+        <v>0.01708207840906151</v>
       </c>
       <c r="D62">
-        <v>-0.002076467340226157</v>
+        <v>0.01289935260292267</v>
       </c>
       <c r="E62">
-        <v>-0.05879304418830361</v>
+        <v>0.03960805413042823</v>
       </c>
       <c r="F62">
-        <v>0.07388213623590426</v>
+        <v>-0.01803413160258809</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04999824164371032</v>
+        <v>-0.04307869998673217</v>
       </c>
       <c r="C63">
-        <v>-0.02984654183027887</v>
+        <v>0.004079393590193403</v>
       </c>
       <c r="D63">
-        <v>0.009683154765438018</v>
+        <v>0.04803014829792675</v>
       </c>
       <c r="E63">
-        <v>0.007017157687008414</v>
+        <v>0.01672964274883945</v>
       </c>
       <c r="F63">
-        <v>-0.07933757960460157</v>
+        <v>-0.01066141824528823</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09254696850402988</v>
+        <v>-0.1122342150830163</v>
       </c>
       <c r="C64">
-        <v>-0.04905348754512103</v>
+        <v>0.01182027222600763</v>
       </c>
       <c r="D64">
-        <v>0.004674075683161032</v>
+        <v>0.0395077299393839</v>
       </c>
       <c r="E64">
-        <v>-0.0522229828694446</v>
+        <v>0.01975813760004927</v>
       </c>
       <c r="F64">
-        <v>-0.09167311469835664</v>
+        <v>-0.01907440957801932</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1228104653104071</v>
+        <v>-0.1440439380721747</v>
       </c>
       <c r="C65">
-        <v>-0.05304491719195474</v>
+        <v>0.03108926799363074</v>
       </c>
       <c r="D65">
-        <v>0.02334278774826657</v>
+        <v>-0.04621586785302973</v>
       </c>
       <c r="E65">
-        <v>-0.0187218876753021</v>
+        <v>0.003168185780657324</v>
       </c>
       <c r="F65">
-        <v>-0.04009204981281785</v>
+        <v>-0.04293100494909271</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1207018469330122</v>
+        <v>-0.1330116477562379</v>
       </c>
       <c r="C66">
-        <v>-0.1319786832701353</v>
+        <v>0.01622072178310704</v>
       </c>
       <c r="D66">
-        <v>0.1265794766740742</v>
+        <v>0.1349180861012917</v>
       </c>
       <c r="E66">
-        <v>-0.115783883988231</v>
+        <v>0.06060134406555625</v>
       </c>
       <c r="F66">
-        <v>-0.1226735915116406</v>
+        <v>-0.04152991331909561</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06659418743295829</v>
+        <v>-0.0645640835580462</v>
       </c>
       <c r="C67">
-        <v>-0.04618457045984738</v>
+        <v>0.003923045232199032</v>
       </c>
       <c r="D67">
-        <v>-0.03453225537180592</v>
+        <v>0.05444922976177083</v>
       </c>
       <c r="E67">
-        <v>-0.08038668674688761</v>
+        <v>0.02067853805811943</v>
       </c>
       <c r="F67">
-        <v>0.06461117448864442</v>
+        <v>0.04192026022327564</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1365948089212905</v>
+        <v>-0.111911535872349</v>
       </c>
       <c r="C68">
-        <v>0.2558380259058294</v>
+        <v>0.02340147169244263</v>
       </c>
       <c r="D68">
-        <v>0.02467713241734748</v>
+        <v>-0.2686245744052493</v>
       </c>
       <c r="E68">
-        <v>-0.005794778344047219</v>
+        <v>-0.08578929159060888</v>
       </c>
       <c r="F68">
-        <v>-0.06285914434537905</v>
+        <v>-0.04344406032909387</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.05052771691769432</v>
+        <v>-0.04042498284236903</v>
       </c>
       <c r="C69">
-        <v>-0.02318508555837394</v>
+        <v>0.001194936615319773</v>
       </c>
       <c r="D69">
-        <v>-0.002934549407459663</v>
+        <v>0.009795791080235395</v>
       </c>
       <c r="E69">
-        <v>-0.02897778124000791</v>
+        <v>0.02605938582079021</v>
       </c>
       <c r="F69">
-        <v>-0.01594832570232241</v>
+        <v>0.01548771734800086</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04982649695311297</v>
+        <v>-0.06524016864873726</v>
       </c>
       <c r="C70">
-        <v>-0.03990647618376793</v>
+        <v>-0.02741529873894238</v>
       </c>
       <c r="D70">
-        <v>0.03307953668021003</v>
+        <v>0.02547300072981582</v>
       </c>
       <c r="E70">
-        <v>-0.01616217710256099</v>
+        <v>-0.04722946889298719</v>
       </c>
       <c r="F70">
-        <v>-0.1001866781389303</v>
+        <v>0.3140255182544051</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1567788699984045</v>
+        <v>-0.13107176603172</v>
       </c>
       <c r="C71">
-        <v>0.2677881261791832</v>
+        <v>0.02749032953689805</v>
       </c>
       <c r="D71">
-        <v>0.01946073080312428</v>
+        <v>-0.2850344990836368</v>
       </c>
       <c r="E71">
-        <v>-0.03698835791516556</v>
+        <v>-0.09315602508172911</v>
       </c>
       <c r="F71">
-        <v>-0.06719368189161672</v>
+        <v>-0.04588019358963704</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1344859793631887</v>
+        <v>-0.1377467870084434</v>
       </c>
       <c r="C72">
-        <v>-0.01721137393782046</v>
+        <v>0.02402635595230254</v>
       </c>
       <c r="D72">
-        <v>0.004692204451458494</v>
+        <v>0.004908289062217655</v>
       </c>
       <c r="E72">
-        <v>-0.04788677283104124</v>
+        <v>0.04281566828274326</v>
       </c>
       <c r="F72">
-        <v>-0.02683468753443012</v>
+        <v>-0.02346107555671913</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2179897869292505</v>
+        <v>-0.206808081968439</v>
       </c>
       <c r="C73">
-        <v>-0.09489559636524442</v>
+        <v>0.01101540217866086</v>
       </c>
       <c r="D73">
-        <v>0.1108580856263459</v>
+        <v>0.01735771171598303</v>
       </c>
       <c r="E73">
-        <v>-0.1957929934765806</v>
+        <v>0.06655365145611586</v>
       </c>
       <c r="F73">
-        <v>0.4927513914091814</v>
+        <v>-0.02761837077392999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1009919860639901</v>
+        <v>-0.09397615528979672</v>
       </c>
       <c r="C74">
-        <v>-0.09484590141384383</v>
+        <v>0.01182855662077676</v>
       </c>
       <c r="D74">
-        <v>0.009099141792507022</v>
+        <v>0.0248141649561236</v>
       </c>
       <c r="E74">
-        <v>-0.1078082233265144</v>
+        <v>0.05102630149459318</v>
       </c>
       <c r="F74">
-        <v>0.03173367903701745</v>
+        <v>-0.0420311615227421</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09840650516169547</v>
+        <v>-0.1303515536949844</v>
       </c>
       <c r="C75">
-        <v>-0.07653814195455989</v>
+        <v>0.02626058915658748</v>
       </c>
       <c r="D75">
-        <v>0.002812497386006457</v>
+        <v>0.03472783216750761</v>
       </c>
       <c r="E75">
-        <v>0.007853799161836839</v>
+        <v>0.06153359907218318</v>
       </c>
       <c r="F75">
-        <v>0.02895986563999281</v>
+        <v>-0.0118850444559616</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.05137332408106618</v>
+        <v>-0.006947428731887761</v>
       </c>
       <c r="C76">
-        <v>-0.05347157519781015</v>
+        <v>0.001549688353626954</v>
       </c>
       <c r="D76">
-        <v>-0.005843720301237142</v>
+        <v>0.001593647603623282</v>
       </c>
       <c r="E76">
-        <v>0.002103330083699554</v>
+        <v>0.006335674590072548</v>
       </c>
       <c r="F76">
-        <v>0.04180463188403817</v>
+        <v>-0.003890469630767905</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06694009829027889</v>
+        <v>-0.08021752738175972</v>
       </c>
       <c r="C77">
-        <v>-0.02214000065232638</v>
+        <v>0.01080706378872393</v>
       </c>
       <c r="D77">
-        <v>0.0387949067742463</v>
+        <v>0.1082072744173317</v>
       </c>
       <c r="E77">
-        <v>0.02761992831986566</v>
+        <v>0.03373097810613344</v>
       </c>
       <c r="F77">
-        <v>-0.1410160124069889</v>
+        <v>-0.03102845468511383</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1453542060430524</v>
+        <v>-0.1093718098225833</v>
       </c>
       <c r="C78">
-        <v>-0.1313961893414536</v>
+        <v>0.04288191213488502</v>
       </c>
       <c r="D78">
-        <v>-0.1882132062765993</v>
+        <v>0.117212090782718</v>
       </c>
       <c r="E78">
-        <v>0.793527749734654</v>
+        <v>0.0883755823775934</v>
       </c>
       <c r="F78">
-        <v>0.03591395033516537</v>
+        <v>-0.07219323326303173</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1324105727035427</v>
+        <v>-0.1636492081552215</v>
       </c>
       <c r="C79">
-        <v>-0.09615426503926644</v>
+        <v>0.02009520811613661</v>
       </c>
       <c r="D79">
-        <v>-0.007679794053233624</v>
+        <v>0.02035168520579388</v>
       </c>
       <c r="E79">
-        <v>-0.04466365998007924</v>
+        <v>0.04924635799640654</v>
       </c>
       <c r="F79">
-        <v>0.02616176422695891</v>
+        <v>-0.01041737865795632</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0696019828698469</v>
+        <v>-0.08044767364167291</v>
       </c>
       <c r="C80">
-        <v>-0.05339275801339659</v>
+        <v>-0.0006335407130889079</v>
       </c>
       <c r="D80">
-        <v>0.08646056063808065</v>
+        <v>0.05575668336831661</v>
       </c>
       <c r="E80">
-        <v>-0.01296620237747255</v>
+        <v>0.03061438356139018</v>
       </c>
       <c r="F80">
-        <v>-0.0634286073651722</v>
+        <v>0.01580267647706366</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1278898066999426</v>
+        <v>-0.1236483451491532</v>
       </c>
       <c r="C81">
-        <v>-0.09506469983100505</v>
+        <v>0.03017919578623588</v>
       </c>
       <c r="D81">
-        <v>-0.006671753362670651</v>
+        <v>0.02030287939693359</v>
       </c>
       <c r="E81">
-        <v>-0.001494656685620593</v>
+        <v>0.06179387663944781</v>
       </c>
       <c r="F81">
-        <v>-0.03321063739717324</v>
+        <v>-0.001179714687702371</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1292017964884426</v>
+        <v>-0.1629175271870972</v>
       </c>
       <c r="C82">
-        <v>-0.06985973749435581</v>
+        <v>0.02062208333474004</v>
       </c>
       <c r="D82">
-        <v>0.01194157804445772</v>
+        <v>0.0168977146160692</v>
       </c>
       <c r="E82">
-        <v>-0.07358347197117447</v>
+        <v>0.03636744090330299</v>
       </c>
       <c r="F82">
-        <v>0.002607322779835174</v>
+        <v>-0.05966496233739779</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07011718743928032</v>
+        <v>-0.06502016439700189</v>
       </c>
       <c r="C83">
-        <v>-0.08495322350259239</v>
+        <v>0.003837362146590208</v>
       </c>
       <c r="D83">
-        <v>0.0357435921444481</v>
+        <v>0.04818483543907641</v>
       </c>
       <c r="E83">
-        <v>-0.08184013570921937</v>
+        <v>0.002455417503794236</v>
       </c>
       <c r="F83">
-        <v>-0.07532722376401382</v>
+        <v>0.04075923252505103</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05649932714181057</v>
+        <v>-0.06073819080483039</v>
       </c>
       <c r="C84">
-        <v>0.0731571734730547</v>
+        <v>0.01133827626112292</v>
       </c>
       <c r="D84">
-        <v>0.03587130205644116</v>
+        <v>0.05995177424828752</v>
       </c>
       <c r="E84">
-        <v>0.1375047410141807</v>
+        <v>-0.004208797077655927</v>
       </c>
       <c r="F84">
-        <v>-0.02382829601664913</v>
+        <v>-0.01459019082458857</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1205436854613657</v>
+        <v>-0.1386363021028613</v>
       </c>
       <c r="C85">
-        <v>-0.06929207527089914</v>
+        <v>0.02558477382643537</v>
       </c>
       <c r="D85">
-        <v>0.002880618732023933</v>
+        <v>0.01663647224551279</v>
       </c>
       <c r="E85">
-        <v>-0.06029833413935667</v>
+        <v>0.04156652624291177</v>
       </c>
       <c r="F85">
-        <v>0.03553822052775798</v>
+        <v>-0.04510035640604189</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08771632587946364</v>
+        <v>-0.09860911063001611</v>
       </c>
       <c r="C86">
-        <v>-0.02990100356313661</v>
+        <v>-0.006635112134793343</v>
       </c>
       <c r="D86">
-        <v>-0.02920585745953876</v>
+        <v>0.02076214884899548</v>
       </c>
       <c r="E86">
-        <v>0.2364207383685837</v>
+        <v>0.1339915672809252</v>
       </c>
       <c r="F86">
-        <v>0.2315947799236422</v>
+        <v>0.8461161345306547</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1158203521052893</v>
+        <v>-0.1000472042536777</v>
       </c>
       <c r="C87">
-        <v>-0.08143211458603164</v>
+        <v>0.0256558869413394</v>
       </c>
       <c r="D87">
-        <v>-0.00976847522112894</v>
+        <v>0.07293316124402423</v>
       </c>
       <c r="E87">
-        <v>0.02403683062084337</v>
+        <v>-0.05230550638597953</v>
       </c>
       <c r="F87">
-        <v>-0.07147072518084117</v>
+        <v>-0.08594887276725365</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05912715774961185</v>
+        <v>-0.0625920967307772</v>
       </c>
       <c r="C88">
-        <v>-0.06836277536291785</v>
+        <v>0.003352172099916333</v>
       </c>
       <c r="D88">
-        <v>0.04172798776347734</v>
+        <v>0.05360079946701804</v>
       </c>
       <c r="E88">
-        <v>-0.03631275670976655</v>
+        <v>0.02644255298324938</v>
       </c>
       <c r="F88">
-        <v>-0.03090848679573379</v>
+        <v>-0.008552663940425783</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2294963739495929</v>
+        <v>-0.1322710345531428</v>
       </c>
       <c r="C89">
-        <v>0.3675784774933765</v>
+        <v>0.006016586576379345</v>
       </c>
       <c r="D89">
-        <v>-0.05401439230054581</v>
+        <v>-0.2656652086020175</v>
       </c>
       <c r="E89">
-        <v>0.0331100726778985</v>
+        <v>-0.09138473421251254</v>
       </c>
       <c r="F89">
-        <v>-0.00191057768911464</v>
+        <v>-0.02799796604231758</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1653339724633474</v>
+        <v>-0.1428679792182808</v>
       </c>
       <c r="C90">
-        <v>0.2576858000752086</v>
+        <v>0.02318876082021892</v>
       </c>
       <c r="D90">
-        <v>0.01343865416883549</v>
+        <v>-0.2727550957772403</v>
       </c>
       <c r="E90">
-        <v>-0.04563157242661969</v>
+        <v>-0.1061063950039693</v>
       </c>
       <c r="F90">
-        <v>-0.02647431236022952</v>
+        <v>-0.02909432142143186</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07944149620324124</v>
+        <v>-0.117370409560188</v>
       </c>
       <c r="C91">
-        <v>-0.07618873207098296</v>
+        <v>0.01633070766506554</v>
       </c>
       <c r="D91">
-        <v>0.006985064619319126</v>
+        <v>-0.003655180511132406</v>
       </c>
       <c r="E91">
-        <v>-0.006272254026532689</v>
+        <v>0.05962521954335982</v>
       </c>
       <c r="F91">
-        <v>0.007379257040028611</v>
+        <v>0.02469641678205772</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1895616443533434</v>
+        <v>-0.1464511532578352</v>
       </c>
       <c r="C92">
-        <v>0.2994845041207998</v>
+        <v>0.01489888289979561</v>
       </c>
       <c r="D92">
-        <v>-0.02359247146068604</v>
+        <v>-0.3058502696760999</v>
       </c>
       <c r="E92">
-        <v>0.02483713958711495</v>
+        <v>-0.1016239156949128</v>
       </c>
       <c r="F92">
-        <v>-0.09183140147772934</v>
+        <v>-0.02500179531332079</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.176089845782191</v>
+        <v>-0.1468278651476257</v>
       </c>
       <c r="C93">
-        <v>0.3025501840162232</v>
+        <v>0.01957905857216994</v>
       </c>
       <c r="D93">
-        <v>0.04502564587587328</v>
+        <v>-0.2751667361342032</v>
       </c>
       <c r="E93">
-        <v>-0.009434484148639751</v>
+        <v>-0.07205371546394537</v>
       </c>
       <c r="F93">
-        <v>-0.04386076181649185</v>
+        <v>-0.02175607690294499</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1217308977743985</v>
+        <v>-0.1334246262407701</v>
       </c>
       <c r="C94">
-        <v>-0.08545384772823168</v>
+        <v>0.02352177851696463</v>
       </c>
       <c r="D94">
-        <v>-0.01226705598106488</v>
+        <v>0.04753508710176597</v>
       </c>
       <c r="E94">
-        <v>-0.03145077702013869</v>
+        <v>0.06220721754267333</v>
       </c>
       <c r="F94">
-        <v>0.03541442601076757</v>
+        <v>-0.02965426937937173</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1144787012032172</v>
+        <v>-0.1270481882075218</v>
       </c>
       <c r="C95">
-        <v>-0.06216638215456573</v>
+        <v>0.005721175832512395</v>
       </c>
       <c r="D95">
-        <v>-0.02378302334684795</v>
+        <v>0.09011295329826578</v>
       </c>
       <c r="E95">
-        <v>0.1324793362139699</v>
+        <v>0.04350428573939586</v>
       </c>
       <c r="F95">
-        <v>-0.01725941942726527</v>
+        <v>0.01239275754073603</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0004728558937652933</v>
+        <v>-0.09590436583248936</v>
       </c>
       <c r="C96">
-        <v>-0.001872887945294273</v>
+        <v>-0.9892708575673907</v>
       </c>
       <c r="D96">
-        <v>0.0002853349613389702</v>
+        <v>-0.02135849439138561</v>
       </c>
       <c r="E96">
-        <v>0.007025276710673789</v>
+        <v>0.0592266120423792</v>
       </c>
       <c r="F96">
-        <v>0.0007564014778591303</v>
+        <v>-0.04843014977041839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1251675563060169</v>
+        <v>-0.1870442218382614</v>
       </c>
       <c r="C97">
-        <v>-0.03612565371776866</v>
+        <v>-0.01190588288943148</v>
       </c>
       <c r="D97">
-        <v>-0.05045627782701197</v>
+        <v>-0.009926211814484012</v>
       </c>
       <c r="E97">
-        <v>0.02903393734269335</v>
+        <v>0.01766706038263087</v>
       </c>
       <c r="F97">
-        <v>-0.148713744014925</v>
+        <v>0.1760686738791682</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2327565266099741</v>
+        <v>-0.2060894366952173</v>
       </c>
       <c r="C98">
-        <v>-0.08399154266722998</v>
+        <v>0.006795200054527803</v>
       </c>
       <c r="D98">
-        <v>-0.0976849463182406</v>
+        <v>0.01480774065348111</v>
       </c>
       <c r="E98">
-        <v>0.0237478554650334</v>
+        <v>-0.09164206991201862</v>
       </c>
       <c r="F98">
-        <v>0.2579492986264244</v>
+        <v>0.1306490453367485</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06711333524418445</v>
+        <v>-0.05798463428991741</v>
       </c>
       <c r="C99">
-        <v>-0.05957754795040854</v>
+        <v>-0.003189175298859835</v>
       </c>
       <c r="D99">
-        <v>-0.009894499748477883</v>
+        <v>0.03445266424928771</v>
       </c>
       <c r="E99">
-        <v>0.0008846817414008001</v>
+        <v>0.02664406847478653</v>
       </c>
       <c r="F99">
-        <v>0.04225584350484699</v>
+        <v>-0.005014722176633945</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004182980440984314</v>
+        <v>-0.1246436911139776</v>
       </c>
       <c r="C100">
-        <v>0.004626974952039742</v>
+        <v>-0.04856681852564256</v>
       </c>
       <c r="D100">
-        <v>0.00614159489166565</v>
+        <v>0.3280899839960841</v>
       </c>
       <c r="E100">
-        <v>-0.006841792267231439</v>
+        <v>-0.9031794990855959</v>
       </c>
       <c r="F100">
-        <v>-0.02625091039587661</v>
+        <v>0.05813774594986763</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03427200440825778</v>
+        <v>-0.02733189140883949</v>
       </c>
       <c r="C101">
-        <v>-0.03332998212609287</v>
+        <v>0.009229807011475886</v>
       </c>
       <c r="D101">
-        <v>0.02168770485137298</v>
+        <v>0.03027028975576734</v>
       </c>
       <c r="E101">
-        <v>0.00941466218328995</v>
+        <v>0.008974667082113424</v>
       </c>
       <c r="F101">
-        <v>-0.0654993901961191</v>
+        <v>0.01131811920314399</v>
       </c>
     </row>
     <row r="102" spans="1:6">
